--- a/biology/Médecine/Apiol/Apiol.xlsx
+++ b/biology/Médecine/Apiol/Apiol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'apiol (du latin apium, le persil) est un nom générique donné à certains esters extraits du persil, de l'aneth ou du fenouil. C'est le principe actif des graines de persil.
@@ -513,7 +525,9 @@
           <t>Chimie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La formule générique de ces composés est C6H(O-CH3)2(O2CH2)C3H5.
 L'apiol est un terme qui peut désigner deux composés :
@@ -547,6 +561,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -572,12 +588,14 @@
           <t>Usage pharmaceutique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'apiol est utilisé (sous forme d'huile essentielle, ou sous forme pure) comme antipériodique, emménagogue et fébrifuge[2]. Il est utilisé en doses de 0,2 à 0,6 ml[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'apiol est utilisé (sous forme d'huile essentielle, ou sous forme pure) comme antipériodique, emménagogue et fébrifuge. Il est utilisé en doses de 0,2 à 0,6 ml.
 C'est un irritant, suspecté d'être toxique à forte dose, endommageant le foie et les reins. Il provoque des malaises à forte dose (nausées, tintement d'oreilles, vertiges, mal de tête).
 Hippocrate mentionnait déjà le persil comme herbe abortive, et la plante a été utilisée dans ce but jusqu'au Moyen Âge. Cette propriété est due à l'apiol : c'est un abortif relativement sûr pris en petite quantité.
-En 1855, Joret et Homollé découvrirent que c'était un traitement efficace contre le manque de menstruation et pour soigner les aménorrhées[4].
+En 1855, Joret et Homollé découvrirent que c'était un traitement efficace contre le manque de menstruation et pour soigner les aménorrhées.
 </t>
         </is>
       </c>
